--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.129951616938669</v>
+        <v>10.01010166666667</v>
       </c>
       <c r="H2">
-        <v>9.129951616938669</v>
+        <v>30.030305</v>
       </c>
       <c r="I2">
-        <v>0.1816579776958353</v>
+        <v>0.1850069534308159</v>
       </c>
       <c r="J2">
-        <v>0.1816579776958353</v>
+        <v>0.1850069534308159</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.62560249327901</v>
+        <v>0.1935943333333333</v>
       </c>
       <c r="N2">
-        <v>1.62560249327901</v>
+        <v>0.580783</v>
       </c>
       <c r="O2">
-        <v>0.6861882657707351</v>
+        <v>0.0749446931203713</v>
       </c>
       <c r="P2">
-        <v>0.6861882657707351</v>
+        <v>0.0749446931203713</v>
       </c>
       <c r="Q2">
-        <v>14.84167211201223</v>
+        <v>1.937898958757222</v>
       </c>
       <c r="R2">
-        <v>14.84167211201223</v>
+        <v>17.441090628815</v>
       </c>
       <c r="S2">
-        <v>0.1246515726785241</v>
+        <v>0.01386528935000732</v>
       </c>
       <c r="T2">
-        <v>0.1246515726785241</v>
+        <v>0.01386528935000732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.129951616938669</v>
+        <v>10.01010166666667</v>
       </c>
       <c r="H3">
-        <v>9.129951616938669</v>
+        <v>30.030305</v>
       </c>
       <c r="I3">
-        <v>0.1816579776958353</v>
+        <v>0.1850069534308159</v>
       </c>
       <c r="J3">
-        <v>0.1816579776958353</v>
+        <v>0.1850069534308159</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.743430284413732</v>
+        <v>1.639706666666667</v>
       </c>
       <c r="N3">
-        <v>0.743430284413732</v>
+        <v>4.91912</v>
       </c>
       <c r="O3">
-        <v>0.3138117342292649</v>
+        <v>0.6347670968714321</v>
       </c>
       <c r="P3">
-        <v>0.3138117342292649</v>
+        <v>0.6347670968714321</v>
       </c>
       <c r="Q3">
-        <v>6.787482527264328</v>
+        <v>16.41363043684445</v>
       </c>
       <c r="R3">
-        <v>6.787482527264328</v>
+        <v>147.7226739316</v>
       </c>
       <c r="S3">
-        <v>0.05700640501731122</v>
+        <v>0.1174363267303073</v>
       </c>
       <c r="T3">
-        <v>0.05700640501731122</v>
+        <v>0.1174363267303073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0783278420991</v>
+        <v>10.01010166666667</v>
       </c>
       <c r="H4">
-        <v>14.0783278420991</v>
+        <v>30.030305</v>
       </c>
       <c r="I4">
-        <v>0.2801154565145682</v>
+        <v>0.1850069534308159</v>
       </c>
       <c r="J4">
-        <v>0.2801154565145682</v>
+        <v>0.1850069534308159</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.62560249327901</v>
+        <v>0.7498616666666665</v>
       </c>
       <c r="N4">
-        <v>1.62560249327901</v>
+        <v>2.249585</v>
       </c>
       <c r="O4">
-        <v>0.6861882657707351</v>
+        <v>0.2902882100081966</v>
       </c>
       <c r="P4">
-        <v>0.6861882657707351</v>
+        <v>0.2902882100081966</v>
       </c>
       <c r="Q4">
-        <v>22.8857648413156</v>
+        <v>7.506191519269442</v>
       </c>
       <c r="R4">
-        <v>22.8857648413156</v>
+        <v>67.55572367342499</v>
       </c>
       <c r="S4">
-        <v>0.1922119393213093</v>
+        <v>0.05370533735050135</v>
       </c>
       <c r="T4">
-        <v>0.1922119393213093</v>
+        <v>0.05370533735050135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0783278420991</v>
+        <v>14.318464</v>
       </c>
       <c r="H5">
-        <v>14.0783278420991</v>
+        <v>42.955392</v>
       </c>
       <c r="I5">
-        <v>0.2801154565145682</v>
+        <v>0.2646342155814416</v>
       </c>
       <c r="J5">
-        <v>0.2801154565145682</v>
+        <v>0.2646342155814416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.743430284413732</v>
+        <v>0.1935943333333333</v>
       </c>
       <c r="N5">
-        <v>0.743430284413732</v>
+        <v>0.580783</v>
       </c>
       <c r="O5">
-        <v>0.3138117342292649</v>
+        <v>0.0749446931203713</v>
       </c>
       <c r="P5">
-        <v>0.3138117342292649</v>
+        <v>0.0749446931203713</v>
       </c>
       <c r="Q5">
-        <v>10.4662552717215</v>
+        <v>2.771973492437333</v>
       </c>
       <c r="R5">
-        <v>10.4662552717215</v>
+        <v>24.947761431936</v>
       </c>
       <c r="S5">
-        <v>0.0879035171932589</v>
+        <v>0.01983293007590132</v>
       </c>
       <c r="T5">
-        <v>0.0879035171932589</v>
+        <v>0.01983293007590132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.4458014927409</v>
+        <v>14.318464</v>
       </c>
       <c r="H6">
-        <v>15.4458014927409</v>
+        <v>42.955392</v>
       </c>
       <c r="I6">
-        <v>0.3073239794455172</v>
+        <v>0.2646342155814416</v>
       </c>
       <c r="J6">
-        <v>0.3073239794455172</v>
+        <v>0.2646342155814416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62560249327901</v>
+        <v>1.639706666666667</v>
       </c>
       <c r="N6">
-        <v>1.62560249327901</v>
+        <v>4.91912</v>
       </c>
       <c r="O6">
-        <v>0.6861882657707351</v>
+        <v>0.6347670968714321</v>
       </c>
       <c r="P6">
-        <v>0.6861882657707351</v>
+        <v>0.6347670968714321</v>
       </c>
       <c r="Q6">
-        <v>25.10873341729226</v>
+        <v>23.47808087722667</v>
       </c>
       <c r="R6">
-        <v>25.10873341729226</v>
+        <v>211.30272789504</v>
       </c>
       <c r="S6">
-        <v>0.2108821084854805</v>
+        <v>0.1679810927574804</v>
       </c>
       <c r="T6">
-        <v>0.2108821084854805</v>
+        <v>0.1679810927574804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.4458014927409</v>
+        <v>14.318464</v>
       </c>
       <c r="H7">
-        <v>15.4458014927409</v>
+        <v>42.955392</v>
       </c>
       <c r="I7">
-        <v>0.3073239794455172</v>
+        <v>0.2646342155814416</v>
       </c>
       <c r="J7">
-        <v>0.3073239794455172</v>
+        <v>0.2646342155814416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.743430284413732</v>
+        <v>0.7498616666666665</v>
       </c>
       <c r="N7">
-        <v>0.743430284413732</v>
+        <v>2.249585</v>
       </c>
       <c r="O7">
-        <v>0.3138117342292649</v>
+        <v>0.2902882100081966</v>
       </c>
       <c r="P7">
-        <v>0.3138117342292649</v>
+        <v>0.2902882100081966</v>
       </c>
       <c r="Q7">
-        <v>11.48287659674642</v>
+        <v>10.73686727914666</v>
       </c>
       <c r="R7">
-        <v>11.48287659674642</v>
+        <v>96.63180551231999</v>
       </c>
       <c r="S7">
-        <v>0.09644187096003673</v>
+        <v>0.07682019274805989</v>
       </c>
       <c r="T7">
-        <v>0.09644187096003673</v>
+        <v>0.07682019274805989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6049373018853</v>
+        <v>18.03143833333333</v>
       </c>
       <c r="H8">
-        <v>11.6049373018853</v>
+        <v>54.09431499999999</v>
       </c>
       <c r="I8">
-        <v>0.2309025863440793</v>
+        <v>0.3332575015830471</v>
       </c>
       <c r="J8">
-        <v>0.2309025863440793</v>
+        <v>0.3332575015830471</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.62560249327901</v>
+        <v>0.1935943333333333</v>
       </c>
       <c r="N8">
-        <v>1.62560249327901</v>
+        <v>0.580783</v>
       </c>
       <c r="O8">
-        <v>0.6861882657707351</v>
+        <v>0.0749446931203713</v>
       </c>
       <c r="P8">
-        <v>0.6861882657707351</v>
+        <v>0.0749446931203713</v>
       </c>
       <c r="Q8">
-        <v>18.86501501229133</v>
+        <v>3.490784283182777</v>
       </c>
       <c r="R8">
-        <v>18.86501501229133</v>
+        <v>31.417058548645</v>
       </c>
       <c r="S8">
-        <v>0.1584426452854212</v>
+        <v>0.02497588118620312</v>
       </c>
       <c r="T8">
-        <v>0.1584426452854212</v>
+        <v>0.02497588118620312</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.03143833333333</v>
+      </c>
+      <c r="H9">
+        <v>54.09431499999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3332575015830471</v>
+      </c>
+      <c r="J9">
+        <v>0.3332575015830471</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.639706666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.91912</v>
+      </c>
+      <c r="O9">
+        <v>0.6347670968714321</v>
+      </c>
+      <c r="P9">
+        <v>0.6347670968714321</v>
+      </c>
+      <c r="Q9">
+        <v>29.56626964475555</v>
+      </c>
+      <c r="R9">
+        <v>266.0964268028</v>
+      </c>
+      <c r="S9">
+        <v>0.2115408967904975</v>
+      </c>
+      <c r="T9">
+        <v>0.2115408967904975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.6049373018853</v>
-      </c>
-      <c r="H9">
-        <v>11.6049373018853</v>
-      </c>
-      <c r="I9">
-        <v>0.2309025863440793</v>
-      </c>
-      <c r="J9">
-        <v>0.2309025863440793</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.743430284413732</v>
-      </c>
-      <c r="N9">
-        <v>0.743430284413732</v>
-      </c>
-      <c r="O9">
-        <v>0.3138117342292649</v>
-      </c>
-      <c r="P9">
-        <v>0.3138117342292649</v>
-      </c>
-      <c r="Q9">
-        <v>8.627461838944116</v>
-      </c>
-      <c r="R9">
-        <v>8.627461838944116</v>
-      </c>
-      <c r="S9">
-        <v>0.07245994105865811</v>
-      </c>
-      <c r="T9">
-        <v>0.07245994105865811</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.03143833333333</v>
+      </c>
+      <c r="H10">
+        <v>54.09431499999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3332575015830471</v>
+      </c>
+      <c r="J10">
+        <v>0.3332575015830471</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7498616666666665</v>
+      </c>
+      <c r="N10">
+        <v>2.249585</v>
+      </c>
+      <c r="O10">
+        <v>0.2902882100081966</v>
+      </c>
+      <c r="P10">
+        <v>0.2902882100081966</v>
+      </c>
+      <c r="Q10">
+        <v>13.52108440103055</v>
+      </c>
+      <c r="R10">
+        <v>121.689759609275</v>
+      </c>
+      <c r="S10">
+        <v>0.09674072360634647</v>
+      </c>
+      <c r="T10">
+        <v>0.09674072360634649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.74662</v>
+      </c>
+      <c r="H11">
+        <v>35.23986</v>
+      </c>
+      <c r="I11">
+        <v>0.2171013294046955</v>
+      </c>
+      <c r="J11">
+        <v>0.2171013294046955</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1935943333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.580783</v>
+      </c>
+      <c r="O11">
+        <v>0.0749446931203713</v>
+      </c>
+      <c r="P11">
+        <v>0.0749446931203713</v>
+      </c>
+      <c r="Q11">
+        <v>2.27407906782</v>
+      </c>
+      <c r="R11">
+        <v>20.46671161038</v>
+      </c>
+      <c r="S11">
+        <v>0.01627059250825955</v>
+      </c>
+      <c r="T11">
+        <v>0.01627059250825955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.74662</v>
+      </c>
+      <c r="H12">
+        <v>35.23986</v>
+      </c>
+      <c r="I12">
+        <v>0.2171013294046955</v>
+      </c>
+      <c r="J12">
+        <v>0.2171013294046955</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.639706666666667</v>
+      </c>
+      <c r="N12">
+        <v>4.91912</v>
+      </c>
+      <c r="O12">
+        <v>0.6347670968714321</v>
+      </c>
+      <c r="P12">
+        <v>0.6347670968714321</v>
+      </c>
+      <c r="Q12">
+        <v>19.2610111248</v>
+      </c>
+      <c r="R12">
+        <v>173.3491001232</v>
+      </c>
+      <c r="S12">
+        <v>0.137808780593147</v>
+      </c>
+      <c r="T12">
+        <v>0.137808780593147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.74662</v>
+      </c>
+      <c r="H13">
+        <v>35.23986</v>
+      </c>
+      <c r="I13">
+        <v>0.2171013294046955</v>
+      </c>
+      <c r="J13">
+        <v>0.2171013294046955</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7498616666666665</v>
+      </c>
+      <c r="N13">
+        <v>2.249585</v>
+      </c>
+      <c r="O13">
+        <v>0.2902882100081966</v>
+      </c>
+      <c r="P13">
+        <v>0.2902882100081966</v>
+      </c>
+      <c r="Q13">
+        <v>8.808340050899998</v>
+      </c>
+      <c r="R13">
+        <v>79.27506045809999</v>
+      </c>
+      <c r="S13">
+        <v>0.06302195630328891</v>
+      </c>
+      <c r="T13">
+        <v>0.06302195630328891</v>
       </c>
     </row>
   </sheetData>
